--- a/Glex/MPI Glex对比实验.xlsx
+++ b/Glex/MPI Glex对比实验.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C3212A49-8204-4851-B87C-D2DACCE72E88}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{63D0F3D2-16B6-4C1F-A5C9-9519238C5849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MPI测试" sheetId="1" r:id="rId1"/>
-    <sheet name="GLEX测试" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
-  <si>
-    <t>cpu halt(N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -73,12 +51,55 @@
     <t>16 byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu halt(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +113,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -118,6 +133,36 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,28 +195,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -225,6 +299,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MPI——</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN"/>
               <a:t>数据量</a:t>
             </a:r>
@@ -275,7 +353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MPI测试!$D$1</c:f>
+              <c:f>测试!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -311,7 +389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MPI测试!$C$2:$C$7</c:f>
+              <c:f>测试!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -338,9 +416,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MPI测试!$D$2:$D$7</c:f>
+              <c:f>测试!$D$3:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.44</c:v>
@@ -579,7 +657,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -686,7 +764,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -699,13 +777,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MPI——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>数据量</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1 MB</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1M</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -722,7 +805,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -747,19 +830,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MPI测试!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>运行时间(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -768,8 +840,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -778,14 +850,13 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MPI测试!$C$13:$C$18</c:f>
+              <c:f>测试!$C$13:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -812,27 +883,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MPI测试!$D$13:$D$18</c:f>
+              <c:f>测试!$D$13:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.96</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.59</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.88</c:v>
+                  <c:v>7.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.46</c:v>
+                  <c:v>13.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-683B-4375-A280-0D2C133F483E}"/>
+              <c16:uniqueId val="{00000000-6657-4E3D-B9CD-6FC02F27C2FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -852,11 +923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="862841512"/>
-        <c:axId val="862841840"/>
+        <c:axId val="834205512"/>
+        <c:axId val="834208464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="862841512"/>
+        <c:axId val="834205512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,62 +947,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>CPU Halt Time</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -941,130 +956,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="862841840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="862841840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>运行时间</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1091,7 +984,69 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862841512"/>
+        <c:crossAx val="834208464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="834208464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834205512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1109,7 +1064,359 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GLEX——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AADB-4D9E-A1F2-62E51B328F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714978280"/>
+        <c:axId val="840777368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714978280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840777368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="840777368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714978280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1220,6 +1527,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -1741,7 +2088,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1752,7 +2099,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1768,6 +2115,29 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1775,30 +2145,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1806,11 +2153,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1842,45 +2189,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1892,26 +2229,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1941,13 +2274,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1957,7 +2292,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1966,131 +2301,142 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2111,7 +2457,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2119,7 +2465,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2132,17 +2478,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2150,10 +2485,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2174,7 +2509,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2183,13 +2518,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2203,26 +2539,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2239,9 +2576,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2254,8 +2591,530 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2264,16 +3123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>204389</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>491900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>435429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484094</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2300,23 +3159,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>478970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3458D28-D834-4DB7-9019-03B143D39EE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9A1BA3-DADC-4762-B85E-B0B07A3C9C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,6 +3188,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>468923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F094081-8D81-4F96-A04D-B99A0904DD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2602,344 +3497,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
+    <row r="1" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3">
-        <v>200</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3">
-        <v>400</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.66</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3">
-        <v>800</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2">
+        <v>400</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.66</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.58</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2">
+        <v>800</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6.58</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2">
         <v>3200</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="7">
         <v>13.16</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E8" s="7">
+        <v>13.13</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    <row r="9" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.73</v>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.53</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2">
         <v>200</v>
       </c>
-      <c r="D14" s="3">
-        <v>1.1399999999999999</v>
+      <c r="D14" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
         <v>400</v>
       </c>
-      <c r="D15" s="3">
-        <v>1.96</v>
+      <c r="D15" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
         <v>800</v>
       </c>
-      <c r="D16" s="3">
-        <v>3.59</v>
+      <c r="D16" s="7">
+        <v>3.71</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
         <v>1600</v>
       </c>
-      <c r="D17" s="3">
-        <v>6.88</v>
+      <c r="D17" s="7">
+        <v>7.04</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6.67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
         <v>3200</v>
       </c>
-      <c r="D18" s="3">
-        <v>13.46</v>
+      <c r="D18" s="7">
+        <v>13.59</v>
+      </c>
+      <c r="E18" s="7">
+        <v>13.31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B7"/>
+  <mergeCells count="8">
     <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AC0C2F-4D01-41FD-B01B-5C630C1260A4}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4">
-        <v>200</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4">
-        <v>400</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4">
-        <v>800</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4">
-        <v>1600</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4">
-        <v>3200</v>
-      </c>
-      <c r="D7" s="4">
-        <v>13.16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Glex/MPI Glex对比实验.xlsx
+++ b/Glex/MPI Glex对比实验.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{63D0F3D2-16B6-4C1F-A5C9-9519238C5849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C76335E-CED4-41F7-BE99-48D03186F5A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -89,6 +89,18 @@
       </rPr>
       <t>序号</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,13 +251,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,6 +405,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>测试!$C$3:$C$8</c:f>
@@ -854,9 +915,53 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>测试!$C$13:$C$18</c:f>
+              <c:f>测试!$C$23:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -883,7 +988,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>测试!$D$13:$D$18</c:f>
+              <c:f>测试!$D$23:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="6"/>
@@ -1206,9 +1311,53 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>测试!$C$13:$C$18</c:f>
+              <c:f>测试!$C$23:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1235,7 +1384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>测试!$E$13:$E$18</c:f>
+              <c:f>测试!$E$23:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="6"/>
@@ -1447,6 +1596,2374 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MPI——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>4M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$D$33:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BD1-489B-8AF7-C1BFE9E31713}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790133928"/>
+        <c:axId val="790135568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790133928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790135568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790135568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790133928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GLEX——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>4M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$E$33:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B937-4485-90E5-96AA06687503}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="797106088"/>
+        <c:axId val="797105432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="797106088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797105432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="797105432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797106088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GLEX——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>16 BYTE</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45EF-421A-A0DE-1ECB4DF6BD57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790192792"/>
+        <c:axId val="790193448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790192792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790193448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790193448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790192792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MPI——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1024 BYTE</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$D$13:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7180-45B2-B670-3D24DD5324D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="797103464"/>
+        <c:axId val="797101824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="797103464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797101824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="797101824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797103464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GLEX——1024 BYTE</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20BF-4FFF-BB74-CD9DEA0D03BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="920840512"/>
+        <c:axId val="920840840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="920840512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="920840840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="920840840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="920840512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GLEX——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>9M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$E$43:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3660-440E-840E-BC2B716AE62B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790198696"/>
+        <c:axId val="790190168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790198696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790190168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="790190168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790198696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1567,6 +4084,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -3119,20 +5876,3116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>491900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6991</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
+      <xdr:rowOff>144481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>429489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3160,15 +9013,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>478970</xdr:rowOff>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>261255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3197,13 +9050,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>410308</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>468923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3224,6 +9077,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246527</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9533A36D-CE89-40B0-8BCB-3BCF7B9C3694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389963</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>753035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122C9E28-3A70-474A-9CA1-DD33F1B1EB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406977</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>484909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEFF69D-C044-4F2B-9129-67CC8FE89232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>498763</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>374073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>471055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4737EF-7FCE-43AC-BAA6-6A41D6CADB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>471053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>27708</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>443344</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9739F8D4-8BA7-4F66-A3A8-2C82E2076A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332509</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>623455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>568037</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4980D2E7-D7E2-4297-B589-6EB4D58F805D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3495,10 +9564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3511,13 +9580,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3528,9 +9597,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3542,16 +9611,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>0.44</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>0.43</v>
       </c>
     </row>
@@ -3559,14 +9628,14 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2">
         <v>200</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>0.85</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>0.85</v>
       </c>
     </row>
@@ -3574,14 +9643,14 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2">
         <v>400</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>1.66</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>1.64</v>
       </c>
     </row>
@@ -3589,14 +9658,14 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2">
         <v>800</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>3.3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3.32</v>
       </c>
     </row>
@@ -3604,14 +9673,14 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2">
         <v>1600</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>6.58</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>6.59</v>
       </c>
     </row>
@@ -3619,32 +9688,27 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2">
         <v>3200</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>13.16</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>13.13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3655,118 +9719,489 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
         <v>100</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.53</v>
+      <c r="D13" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6">
         <v>200</v>
       </c>
-      <c r="D14" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.93</v>
+      <c r="D14" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6">
         <v>400</v>
       </c>
-      <c r="D15" s="7">
-        <v>2.15</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1.82</v>
+      <c r="D15" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6">
         <v>800</v>
       </c>
-      <c r="D16" s="7">
-        <v>3.71</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3.44</v>
+      <c r="D16" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6">
         <v>1600</v>
       </c>
-      <c r="D17" s="7">
-        <v>7.04</v>
-      </c>
-      <c r="E17" s="7">
-        <v>6.67</v>
+      <c r="D17" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6.57</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="6">
         <v>3200</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
+        <v>13.14</v>
+      </c>
+      <c r="E18" s="5">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="2">
+        <v>200</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="2">
+        <v>400</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2">
+        <v>800</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.71</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7.04</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D28" s="5">
         <v>13.59</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E28" s="5">
         <v>13.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="3">
+        <v>200</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.56</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3">
+        <v>400</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3">
+        <v>800</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="3">
+        <v>1600</v>
+      </c>
+      <c r="D37" s="5">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D38" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="E38" s="5">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>1</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="6">
+        <v>100</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6">
+        <v>200</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>3</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6">
+        <v>400</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6">
+        <v>800</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6">
+        <v>1600</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>6</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6">
+        <v>3200</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
+        <v>14.27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="20">
+    <mergeCell ref="B43:B48"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B23:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Glex/MPI Glex对比实验.xlsx
+++ b/Glex/MPI Glex对比实验.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C76335E-CED4-41F7-BE99-48D03186F5A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FCBC2916-4F44-48AA-9E23-CCAFF90E36A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9567,7 +9567,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Glex/MPI Glex对比实验.xlsx
+++ b/Glex/MPI Glex对比实验.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FCBC2916-4F44-48AA-9E23-CCAFF90E36A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0F1EE88-1466-4BC8-A090-23D5CDCC2DFA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -96,11 +96,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1024Byte</t>
+    <t>9M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9M</t>
+    <t>后段直线部分截距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,12 +129,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -172,6 +170,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -237,33 +242,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,6 +782,402 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MPI——</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>数据量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>9M</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>测试!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>测试!$D$43:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DB8-448D-B32E-780D7AA399D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="748397056"/>
+        <c:axId val="748403616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="748397056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748403616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="748403616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748397056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1785,7 +2189,7 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.56</c:v>
@@ -2184,7 +2588,7 @@
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.95</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1</c:v>
@@ -3965,6 +4369,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4844,6 +5288,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9265,15 +10225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>332509</xdr:colOff>
+      <xdr:colOff>495794</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>623455</xdr:rowOff>
+      <xdr:rowOff>797627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>568037</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121722</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>27709</xdr:rowOff>
+      <xdr:rowOff>201881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9293,6 +10253,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>283028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EF350D-275B-46BE-8B10-83553C252FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9564,10 +10560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9589,10 +10585,10 @@
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9600,102 +10596,102 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.44</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.85</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1">
         <v>400</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.66</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1">
         <v>800</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3.3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3.32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1">
         <v>1600</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6.58</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>6.59</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1">
         <v>3200</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>13.16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>13.13</v>
       </c>
     </row>
@@ -9711,10 +10707,10 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9722,110 +10718,117 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.44</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5">
         <v>200</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.84</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5">
         <v>400</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1.67</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1.65</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5">
         <v>800</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>3.3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>3.32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5">
         <v>1600</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6.64</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>6.57</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5">
         <v>3200</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>13.14</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>13.15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -9838,10 +10841,10 @@
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9849,106 +10852,118 @@
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>100</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="1">
         <v>200</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1.23</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.93</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="1">
         <v>400</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>2.15</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>1.82</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="1">
         <v>800</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>3.71</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>3.44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="1">
         <v>1600</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>7.04</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>6.67</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>6</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="1">
         <v>3200</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>13.59</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>13.31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -9960,10 +10975,10 @@
       <c r="C31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9971,106 +10986,118 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>100</v>
       </c>
-      <c r="D33" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E33" s="4">
         <v>1.6</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="2">
         <v>200</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>2.56</v>
       </c>
-      <c r="E34" s="5">
-        <v>1.95</v>
+      <c r="E34" s="4">
+        <v>1.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>3</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="2">
         <v>400</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>3.19</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>2.1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="2">
         <v>800</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>5.03</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>3.73</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="2">
         <v>1600</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>7.01</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="2">
         <v>3200</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>14.92</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>13.56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10">
+        <v>1.55</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.46</v>
+      </c>
+    </row>
     <row r="40" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -10082,10 +11109,10 @@
       <c r="C41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10093,95 +11120,130 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
         <v>100</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="D43" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E43" s="4">
         <v>3.71</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>2</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6">
+      <c r="B44" s="6"/>
+      <c r="C44" s="5">
         <v>200</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
+      <c r="D44" s="4">
+        <v>4.66</v>
+      </c>
+      <c r="E44" s="4">
         <v>3.71</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>3</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6">
+      <c r="B45" s="6"/>
+      <c r="C45" s="5">
         <v>400</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5">
+      <c r="D45" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E45" s="4">
         <v>3.69</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>4</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6">
+      <c r="B46" s="6"/>
+      <c r="C46" s="5">
         <v>800</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5">
+      <c r="D46" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="E46" s="4">
         <v>4.42</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>5</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6">
+      <c r="B47" s="6"/>
+      <c r="C47" s="5">
         <v>1600</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5">
+      <c r="D47" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="E47" s="4">
         <v>7.68</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6">
+      <c r="B48" s="6"/>
+      <c r="C48" s="5">
         <v>3200</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5">
+      <c r="D48" s="4">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="E48" s="4">
         <v>14.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1.0900000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -10190,18 +11252,12 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Glex/MPI Glex对比实验.xlsx
+++ b/Glex/MPI Glex对比实验.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C0F1EE88-1466-4BC8-A090-23D5CDCC2DFA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB6CE2CD-DC89-45AF-B05E-C67CCBEC61C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,10 +271,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10562,8 +10562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10576,13 +10576,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -10593,9 +10593,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -10624,7 +10624,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1">
         <v>200</v>
       </c>
@@ -10639,7 +10639,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1">
         <v>400</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1">
         <v>800</v>
       </c>
@@ -10669,7 +10669,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1">
         <v>1600</v>
       </c>
@@ -10684,7 +10684,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1">
         <v>3200</v>
       </c>
@@ -10698,13 +10698,13 @@
     <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -10715,9 +10715,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="A13" s="5">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
@@ -10746,7 +10746,7 @@
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="5">
         <v>200</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="5">
         <v>400</v>
       </c>
@@ -10776,7 +10776,7 @@
       <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="5">
         <v>800</v>
       </c>
@@ -10791,7 +10791,7 @@
       <c r="A17" s="5">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="5">
         <v>1600</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="5">
         <v>3200</v>
       </c>
@@ -10818,27 +10818,27 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6">
         <v>0.31</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -10849,9 +10849,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1">
@@ -10880,7 +10880,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1">
         <v>200</v>
       </c>
@@ -10895,7 +10895,7 @@
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1">
         <v>400</v>
       </c>
@@ -10910,7 +10910,7 @@
       <c r="A26" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1">
         <v>800</v>
       </c>
@@ -10925,7 +10925,7 @@
       <c r="A27" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1">
         <v>1600</v>
       </c>
@@ -10940,7 +10940,7 @@
       <c r="A28" s="1">
         <v>6</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1">
         <v>3200</v>
       </c>
@@ -10952,27 +10952,27 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6">
         <v>0.48</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -10983,9 +10983,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +10997,7 @@
       <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2">
@@ -11014,7 +11014,7 @@
       <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="2">
         <v>200</v>
       </c>
@@ -11029,7 +11029,7 @@
       <c r="A35" s="2">
         <v>3</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2">
         <v>400</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="2">
         <v>800</v>
       </c>
@@ -11059,7 +11059,7 @@
       <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="2">
         <v>1600</v>
       </c>
@@ -11074,7 +11074,7 @@
       <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="2">
         <v>3200</v>
       </c>
@@ -11086,27 +11086,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6">
         <v>1.55</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>0.46</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -11117,9 +11117,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5" t="s">
         <v>0</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="5">
@@ -11148,7 +11148,7 @@
       <c r="A44" s="5">
         <v>2</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="5">
         <v>200</v>
       </c>
@@ -11163,7 +11163,7 @@
       <c r="A45" s="5">
         <v>3</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="5">
         <v>400</v>
       </c>
@@ -11178,7 +11178,7 @@
       <c r="A46" s="5">
         <v>4</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="5">
         <v>800</v>
       </c>
@@ -11193,7 +11193,7 @@
       <c r="A47" s="5">
         <v>5</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="5">
         <v>1600</v>
       </c>
@@ -11208,7 +11208,7 @@
       <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="5">
         <v>3200</v>
       </c>
@@ -11220,20 +11220,28 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6">
         <v>3.83</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>1.0900000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B38"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A49:C49"/>
@@ -11250,14 +11258,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
